--- a/notes/Algo Record.xlsx
+++ b/notes/Algo Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\husky-algo\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05131881-8729-473E-B749-8C66ABCD4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9711A-9851-4B28-A9B2-96F768FF62B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,8 +59,288 @@
     <t>Easy</t>
   </si>
   <si>
+    <t>Review 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/9/11-2025/9/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二分查找</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">704. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二分查找</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移除元素</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">69.x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的平方根</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>367.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效的完全平方数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>977.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有序数组的平方</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序数组的平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>209.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度最小的子数组</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>904.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水果成篮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>76.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小覆盖子串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度最小的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>59.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋矩阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>II</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>54.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺旋矩阵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>29.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺时针打印矩阵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">58. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区间和</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">44. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发商购买土地</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间和（ACM）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发商购买土地(ACM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>35.</t>
     </r>
     <r>
       <rPr>
@@ -72,33 +352,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>二分查找</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrays</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025/9/11-2025/9/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">27. </t>
+      <t>搜索插入位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>34.</t>
     </r>
     <r>
       <rPr>
@@ -110,16 +370,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>移除元素</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>在排序数组中查找元素的第一个和最后一个位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +420,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,12 +498,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -223,13 +551,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -237,154 +595,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -402,84 +613,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -761,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BA25F9-AC83-41C4-813B-C4A36B2E45AA}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -774,25 +908,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -801,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -911,310 +1045,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="38.9140625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="10.58203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="2" customWidth="1"/>
+    <col min="4" max="9" width="10.58203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7">
         <v>45911</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45912</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45912</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8">
-        <v>45911</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45911</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="I16" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>"Easy"</formula>
+  <conditionalFormatting sqref="A1:XFD2 A3:A6 F6:XFD6 A7:XFD9 A12:XFD12 A10:A11 C10:XFD11 A13:A14 C13:XFD14 A15:XFD1048576 C3:XFD5">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"Hard"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{C6B289EB-F6A7-46A7-8A6E-1BCB4B33FE9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D7:D1048576" xr:uid="{C6B289EB-F6A7-46A7-8A6E-1BCB4B33FE9A}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E0213283-8283-4CF3-BEA8-905D54B629F4}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{114C4898-32E0-4580-8E20-A703F58A370E}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E0213283-8283-4CF3-BEA8-905D54B629F4}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{114C4898-32E0-4580-8E20-A703F58A370E}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{ADEFCB38-617C-4957-8723-0D9926BF81C7}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{153B5BF1-8C2D-48E7-9AB7-6DAC98DF41E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/notes/Algo Record.xlsx
+++ b/notes/Algo Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\husky-algo\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9711A-9851-4B28-A9B2-96F768FF62B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205818C8-3CFB-4BF1-A372-015919A047FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="33103" windowHeight="17983" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="4" r:id="rId1"/>
@@ -540,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -557,16 +557,22 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,19 +581,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1045,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1090,13 +1087,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1114,14 +1111,14 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <v>45912</v>
       </c>
       <c r="F3" s="3"/>
@@ -1133,8 +1130,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1152,7 +1149,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1164,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1182,10 +1179,10 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1203,7 +1200,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1220,7 +1217,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1237,7 +1234,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1249,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1264,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1284,7 +1281,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1296,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1314,7 +1311,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1331,7 +1328,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1351,7 +1348,7 @@
     <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD2 A3:A6 F6:XFD6 A7:XFD9 A12:XFD12 A10:A11 C10:XFD11 A13:A14 C13:XFD14 A15:XFD1048576 C3:XFD5">
+  <conditionalFormatting sqref="A1:XFD2 C3:XFD5 A3:A6 F6:XFD6 A7:XFD9 A10:A11 C10:XFD11 A12:XFD12 A13:A14 C13:XFD14 A15:XFD1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
